--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_39.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_39.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,638 +488,680 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1152482269503546</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>jaah_66</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_170</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08804554079696394</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['Bb:7', 'Bb:7', 'Eb:7', 'Eb:7'], ['Ab', 'Ab', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[['E:7/5', 'E:7', 'A:7', 'A:7/5'], ['D', 'D/5', 'D', 'D:maj(*1)/#1']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(67.14, 70.82)]</t>
+          <t>[('0:00:36.200000', '0:00:40.680000'), ('0:00:56.360000', '0:01:00.920000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+          <t>[('0:00:41.627674', '0:00:46.153479'), ('0:00:37.077029', '0:00:40.734172')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3238636363636364</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4211538461538462</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(82.5, 90.74)]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(15.32, 17.86)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_199</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0929951690821256</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['Bb:maj', 'C', 'Bb/5']]</t>
-        </is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1644736842105263</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G', 'A', 'G']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(29.986893, 33.048777)]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(70.041252, 72.490957)]</t>
+          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:02:16.604739', '0:02:19.228594'), ('0:00:04.155032', '0:00:07.525011')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2976190476190476</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2946428571428572</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['A:7', 'D', 'D'], ['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(58.4, 60.68)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(83.34, 87.64)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:33.016000', '0:00:39.805000'), ('0:00:00.279000', '0:00:16.531000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:03:42.980000', '0:03:50.900000'), ('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2660098522167488</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:maj/D', 'D:7']]</t>
-        </is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.162280701754386</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Db:maj', 'Ab/3', 'Eb:7']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(62.2, 64.04)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(13.159, 16.555)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:17.581738', '0:00:30.271443')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1405405405405405</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2833333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(1.129708, 6.12526)]</t>
+          <t>[['C', 'C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[('0:04:00.860000', '0:04:13.720000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:04:21.680000', '0:04:26.900000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05499181669394435</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.21, 15.93)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(67.56, 74.1)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:21.440000', '0:00:25.400000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:03:44.020000', '0:04:01.440000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.06346153846153846</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:maj', 'B:min'], ['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_75</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G#:7', 'C#', 'A#:min'], ['A#:min/F', 'F', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min'], ['C#/F', 'G#:7/D#', 'C#/F'], ['A#:min', 'D#:min', 'A#:min/F']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(36.34, 42.08), (12.14, 20.02), (74.1, 80.04), (34.86, 39.7), (25.48, 32.58)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(38.36, 40.94), (13.36, 18.32), (24.68, 28.56), (43.34, 45.2), (8.4, 12.14)]</t>
+          <t>[('0:00:00.240000', '0:00:07.820000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:47.060000', '0:00:59.980000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_147</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(42.08, 57.88)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(79.98, 87.7)]</t>
+          <t>[('0:00:19.780000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
+          <t>[('0:00:55.400000', '0:01:05.220000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3726708074534161</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj/B', 'D:7', 'G:maj', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(19.52, 23.12)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(63.1, 66.36)]</t>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:24.660000', '0:00:27.760000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_158</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_99</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(8.34, 16.5)]</t>
+          <t>[('0:01:06.100000', '0:01:30.100000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:01:06.740000', '0:01:30.220000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_80</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1304112554112554</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_163</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'F', 'F:7', 'Bb']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(60.72, 72.72)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(21.41, 26.86)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:55.400000', '0:01:05.220000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_258</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'E:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(27.46, 36.02)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.506, 8.175)]</t>
+          <t>[('0:02:01.740000', '0:02:08.480000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_66</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
+          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.06, 17.06), (4.84, 10.64)]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(23.3, 26.86), (12.28, 17.3)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:00:00.620000', '0:01:47.380000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:01.660000', '0:01:37')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2125</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.129454, 5.172811)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(55.68, 62.28)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_3</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_30</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06725146198830409</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Eb'], ['Eb', 'Eb', 'Ab']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'D/7', 'A/3'], ['A', 'A', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(130.64, 133.34), (136.07, 138.78)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(10.12979, 11.569428), (14.448702, 17.908476)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:00.360000', '0:02:02.640000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
